--- a/resources/excel-sample.xlsx
+++ b/resources/excel-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">Lu</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">Lab 5
 Procesos
 Roger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
   <si>
     <t xml:space="preserve">18:30-19:20</t>
@@ -101,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,6 +126,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -182,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,7 +205,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,10 +233,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.14"/>
@@ -296,16 +310,18 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
@@ -314,17 +330,17 @@
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -332,18 +348,22 @@
     </row>
     <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/resources/excel-sample.xlsx
+++ b/resources/excel-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">Lu</t>
   </si>
@@ -44,19 +44,19 @@
 Ingles</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab Elect
-Optativa
-Palma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab 2
+    <t xml:space="preserve">Laboratorio Electrónica
+Optativa-I
+Oscar Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorio 2
 Ing. Economica
 Quijano</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 8
-Progra
-Mex</t>
+    <t xml:space="preserve">Laboratorio 8
+Programación
+Aurelio Mex</t>
   </si>
   <si>
     <t xml:space="preserve">16:50-17:40</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">17:40-18:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 5
-Mate
+    <t xml:space="preserve">Laboratorio 5
+Matemáticas
 Yahaira</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab 5
-Procesos
+    <t xml:space="preserve">Laboratorio 5
+Modelado de Procesos de Negocios
 Roger</t>
   </si>
   <si>
@@ -79,6 +79,19 @@
   </si>
   <si>
     <t xml:space="preserve">18:30-19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula C-102
+Administración del tiempo
+Karla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:20-20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula C-102
+Tutorias
+Gimer</t>
   </si>
   <si>
     <t xml:space="preserve">Aula C-102
@@ -86,15 +99,17 @@
 Karla</t>
   </si>
   <si>
-    <t xml:space="preserve">19:20-20:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula C-102
-Tutorias
-Gimer</t>
+    <t xml:space="preserve">Labatorio 5
+Matemáticas
+Yahaira</t>
   </si>
   <si>
     <t xml:space="preserve">20:10-21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorio 2
+Ing. Economica
+Victor Quijano</t>
   </si>
 </sst>
 </file>
@@ -233,15 +248,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="32.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,7 +274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -282,7 +294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -294,7 +306,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -340,30 +352,31 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/resources/excel-sample.xlsx
+++ b/resources/excel-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">Lu</t>
   </si>
@@ -49,9 +49,37 @@
 Oscar Palma</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratorio 2
-Ing. Economica
-Quijano</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Laboratorio 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ingeniería Económica
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Quijano</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Laboratorio 8
@@ -90,25 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">Aula C-102
-Tutorias
+Tutorías
 Gimer</t>
   </si>
   <si>
-    <t xml:space="preserve">Aula C-102
-Admin del tiempo
-Karla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labatorio 5
-Matemáticas
-Yahaira</t>
-  </si>
-  <si>
     <t xml:space="preserve">20:10-21:00</t>
   </si>
   <si>
     <t xml:space="preserve">Laboratorio 2
-Ing. Economica
+Ingeniería Económica
 Victor Quijano</t>
   </si>
 </sst>
@@ -119,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,6 +161,20 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -207,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,11 +252,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,11 +283,11 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="32.93"/>
   </cols>
@@ -352,31 +388,31 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
